--- a/result/52w_global_model_results.xlsx
+++ b/result/52w_global_model_results.xlsx
@@ -55,16 +55,16 @@
     <t>ExtraTreeRegressor</t>
   </si>
   <si>
+    <t>Darts</t>
+  </si>
+  <si>
+    <t>pmdarima</t>
+  </si>
+  <si>
+    <t>RandomForestRegressor</t>
+  </si>
+  <si>
     <t>BayesianRidge</t>
-  </si>
-  <si>
-    <t>Darts</t>
-  </si>
-  <si>
-    <t>pmdarima</t>
-  </si>
-  <si>
-    <t>RandomForestRegressor</t>
   </si>
   <si>
     <t>DecisionTreeRegressor</t>
@@ -608,19 +608,13 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.4266959556695533</v>
+        <v>0.7882718780155274</v>
       </c>
       <c r="C9">
-        <v>82928.12003464252</v>
+        <v>6093988</v>
       </c>
       <c r="D9">
-        <v>0.3381583690643311</v>
-      </c>
-      <c r="E9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" t="s">
-        <v>22</v>
+        <v>0.02279233932495117</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -628,13 +622,13 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.7882718780155274</v>
+        <v>0.9821999668657048</v>
       </c>
       <c r="C10">
-        <v>6093988</v>
+        <v>7593211.147844728</v>
       </c>
       <c r="D10">
-        <v>0.02279233932495117</v>
+        <v>94.80809473991394</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -642,13 +636,19 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.9821999668657048</v>
+        <v>1.071999042445439</v>
       </c>
       <c r="C11">
-        <v>7593211.147844728</v>
+        <v>86605.87000000011</v>
       </c>
       <c r="D11">
-        <v>94.80809473991394</v>
+        <v>13.01693916320801</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -656,13 +656,13 @@
         <v>16</v>
       </c>
       <c r="B12">
-        <v>1.071999042445439</v>
+        <v>1.342603894190321</v>
       </c>
       <c r="C12">
-        <v>86605.87000000011</v>
+        <v>415075.9962879494</v>
       </c>
       <c r="D12">
-        <v>13.01693916320801</v>
+        <v>0.225989818572998</v>
       </c>
       <c r="E12" t="s">
         <v>20</v>

--- a/result/52w_global_model_results.xlsx
+++ b/result/52w_global_model_results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
   <si>
     <t>Model Name</t>
   </si>
@@ -64,19 +64,22 @@
     <t>RandomForestRegressor</t>
   </si>
   <si>
+    <t>DecisionTreeRegressor</t>
+  </si>
+  <si>
+    <t>KNeighborsRegressor</t>
+  </si>
+  <si>
     <t>BayesianRidge</t>
   </si>
   <si>
-    <t>DecisionTreeRegressor</t>
-  </si>
-  <si>
-    <t>KNeighborsRegressor</t>
-  </si>
-  <si>
     <t>RobustScaler</t>
   </si>
   <si>
     <t>No scaling</t>
+  </si>
+  <si>
+    <t>QuantileTransformer</t>
   </si>
   <si>
     <t>No scoring</t>
@@ -486,7 +489,7 @@
         <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -506,7 +509,7 @@
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -526,7 +529,7 @@
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -560,7 +563,7 @@
         <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -580,7 +583,7 @@
         <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -600,7 +603,7 @@
         <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -648,7 +651,7 @@
         <v>20</v>
       </c>
       <c r="F11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -656,19 +659,19 @@
         <v>16</v>
       </c>
       <c r="B12">
-        <v>1.342603894190321</v>
+        <v>1.409855509027019</v>
       </c>
       <c r="C12">
-        <v>415075.9962879494</v>
+        <v>113901</v>
       </c>
       <c r="D12">
-        <v>0.225989818572998</v>
+        <v>0.7537131309509277</v>
       </c>
       <c r="E12" t="s">
         <v>20</v>
       </c>
       <c r="F12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -676,19 +679,19 @@
         <v>17</v>
       </c>
       <c r="B13">
-        <v>1.409855509027019</v>
+        <v>2.088258992863665</v>
       </c>
       <c r="C13">
-        <v>113901</v>
+        <v>168708.6272481317</v>
       </c>
       <c r="D13">
-        <v>0.7537131309509277</v>
+        <v>0.6254384517669678</v>
       </c>
       <c r="E13" t="s">
         <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -696,19 +699,19 @@
         <v>18</v>
       </c>
       <c r="B14">
-        <v>2.088258992863665</v>
+        <v>14.09521036386183</v>
       </c>
       <c r="C14">
-        <v>168708.6272481317</v>
+        <v>1948635.77</v>
       </c>
       <c r="D14">
-        <v>0.6254384517669678</v>
+        <v>6.421414852142334</v>
       </c>
       <c r="E14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
